--- a/Basics/Python EDA/result.xlsx
+++ b/Basics/Python EDA/result.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="171">
   <si>
     <t>Variable</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Segment</t>
   </si>
   <si>
-    <t>Expectation</t>
-  </si>
-  <si>
     <t>Conclusion</t>
   </si>
   <si>
@@ -526,6 +523,15 @@
   </si>
   <si>
     <t xml:space="preserve">Building </t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Impact on Sales Price</t>
+  </si>
+  <si>
+    <t>Medium</t>
   </si>
 </sst>
 </file>
@@ -1368,13 +1374,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="76" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -1391,10 +1398,10 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1402,13 +1409,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1416,16 +1423,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
         <v>164</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>165</v>
+      <c r="F3" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1433,16 +1443,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>166</v>
+        <v>165</v>
+      </c>
+      <c r="F4" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1450,16 +1463,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
       <c r="E5" t="s">
-        <v>165</v>
+        <v>164</v>
+      </c>
+      <c r="F5" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1467,16 +1483,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>165</v>
+        <v>164</v>
+      </c>
+      <c r="F6" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1484,16 +1503,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1501,16 +1520,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1518,16 +1537,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1535,16 +1554,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1552,16 +1571,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1569,16 +1588,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
         <v>28</v>
       </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1586,16 +1605,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
         <v>30</v>
       </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1603,16 +1622,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
         <v>32</v>
       </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1620,16 +1639,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
         <v>34</v>
       </c>
-      <c r="C15" t="s">
-        <v>35</v>
-      </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1637,16 +1656,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
         <v>36</v>
       </c>
-      <c r="C16" t="s">
-        <v>37</v>
-      </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1654,16 +1673,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
         <v>38</v>
       </c>
-      <c r="C17" t="s">
-        <v>39</v>
-      </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1671,16 +1690,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
         <v>40</v>
       </c>
-      <c r="C18" t="s">
-        <v>41</v>
-      </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1688,16 +1707,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
         <v>42</v>
       </c>
-      <c r="C19" t="s">
-        <v>43</v>
-      </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1705,13 +1724,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
         <v>44</v>
       </c>
-      <c r="C20" t="s">
-        <v>45</v>
-      </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1719,13 +1738,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
         <v>46</v>
       </c>
-      <c r="C21" t="s">
-        <v>47</v>
-      </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1733,13 +1752,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
         <v>48</v>
       </c>
-      <c r="C22" t="s">
-        <v>49</v>
-      </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1747,13 +1766,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
         <v>50</v>
       </c>
-      <c r="C23" t="s">
-        <v>51</v>
-      </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1761,13 +1780,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
         <v>52</v>
       </c>
-      <c r="C24" t="s">
-        <v>53</v>
-      </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1775,13 +1794,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
         <v>54</v>
       </c>
-      <c r="C25" t="s">
-        <v>55</v>
-      </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1789,13 +1808,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
         <v>56</v>
       </c>
-      <c r="C26" t="s">
-        <v>57</v>
-      </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1803,13 +1822,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
         <v>58</v>
       </c>
-      <c r="C27" t="s">
-        <v>59</v>
-      </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1817,13 +1836,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" t="s">
         <v>60</v>
       </c>
-      <c r="C28" t="s">
-        <v>61</v>
-      </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1831,13 +1850,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
         <v>62</v>
       </c>
-      <c r="C29" t="s">
-        <v>63</v>
-      </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1845,13 +1864,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" t="s">
         <v>64</v>
       </c>
-      <c r="C30" t="s">
-        <v>65</v>
-      </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1859,13 +1878,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
         <v>66</v>
       </c>
-      <c r="C31" t="s">
-        <v>67</v>
-      </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1873,13 +1892,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" t="s">
         <v>68</v>
       </c>
-      <c r="C32" t="s">
-        <v>69</v>
-      </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1887,13 +1906,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" t="s">
         <v>70</v>
       </c>
-      <c r="C33" t="s">
-        <v>71</v>
-      </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1901,13 +1920,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" t="s">
         <v>72</v>
       </c>
-      <c r="C34" t="s">
-        <v>73</v>
-      </c>
       <c r="D34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -1915,13 +1934,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" t="s">
         <v>74</v>
       </c>
-      <c r="C35" t="s">
-        <v>75</v>
-      </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1929,13 +1948,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" t="s">
         <v>76</v>
       </c>
-      <c r="C36" t="s">
-        <v>77</v>
-      </c>
       <c r="D36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1943,13 +1962,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" t="s">
         <v>78</v>
       </c>
-      <c r="C37" t="s">
-        <v>79</v>
-      </c>
       <c r="D37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -1957,13 +1976,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" t="s">
         <v>80</v>
       </c>
-      <c r="C38" t="s">
-        <v>81</v>
-      </c>
       <c r="D38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1971,13 +1990,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" t="s">
         <v>82</v>
       </c>
-      <c r="C39" t="s">
-        <v>83</v>
-      </c>
       <c r="D39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1985,13 +2004,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" t="s">
         <v>84</v>
       </c>
-      <c r="C40" t="s">
-        <v>85</v>
-      </c>
       <c r="D40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1999,13 +2018,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" t="s">
         <v>86</v>
       </c>
-      <c r="C41" t="s">
-        <v>87</v>
-      </c>
       <c r="D41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -2013,13 +2032,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" t="s">
         <v>88</v>
       </c>
-      <c r="C42" t="s">
-        <v>89</v>
-      </c>
       <c r="D42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -2027,13 +2046,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" t="s">
         <v>90</v>
       </c>
-      <c r="C43" t="s">
-        <v>91</v>
-      </c>
       <c r="D43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -2041,13 +2060,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" t="s">
         <v>92</v>
       </c>
-      <c r="C44" t="s">
-        <v>93</v>
-      </c>
       <c r="D44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -2055,13 +2074,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" t="s">
         <v>94</v>
       </c>
-      <c r="C45" t="s">
-        <v>95</v>
-      </c>
       <c r="D45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -2069,13 +2088,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" t="s">
         <v>96</v>
       </c>
-      <c r="C46" t="s">
-        <v>97</v>
-      </c>
       <c r="D46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -2083,13 +2102,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" t="s">
         <v>98</v>
       </c>
-      <c r="C47" t="s">
-        <v>99</v>
-      </c>
       <c r="D47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -2097,13 +2116,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" t="s">
         <v>100</v>
       </c>
-      <c r="C48" t="s">
-        <v>101</v>
-      </c>
       <c r="D48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -2111,13 +2130,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" t="s">
         <v>102</v>
       </c>
-      <c r="C49" t="s">
-        <v>103</v>
-      </c>
       <c r="D49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -2125,13 +2144,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" t="s">
         <v>104</v>
       </c>
-      <c r="C50" t="s">
-        <v>105</v>
-      </c>
       <c r="D50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -2139,13 +2158,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" t="s">
         <v>106</v>
       </c>
-      <c r="C51" t="s">
-        <v>107</v>
-      </c>
       <c r="D51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -2153,13 +2172,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" t="s">
         <v>108</v>
       </c>
-      <c r="C52" t="s">
-        <v>109</v>
-      </c>
       <c r="D52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -2167,13 +2186,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" t="s">
         <v>110</v>
       </c>
-      <c r="C53" t="s">
-        <v>111</v>
-      </c>
       <c r="D53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -2181,13 +2200,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" t="s">
         <v>112</v>
       </c>
-      <c r="C54" t="s">
-        <v>113</v>
-      </c>
       <c r="D54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -2195,13 +2214,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" t="s">
         <v>114</v>
       </c>
-      <c r="C55" t="s">
-        <v>115</v>
-      </c>
       <c r="D55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -2209,13 +2228,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" t="s">
         <v>116</v>
       </c>
-      <c r="C56" t="s">
-        <v>117</v>
-      </c>
       <c r="D56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -2223,13 +2242,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" t="s">
         <v>118</v>
       </c>
-      <c r="C57" t="s">
-        <v>119</v>
-      </c>
       <c r="D57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -2237,13 +2256,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" t="s">
         <v>120</v>
       </c>
-      <c r="C58" t="s">
-        <v>121</v>
-      </c>
       <c r="D58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -2251,13 +2270,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" t="s">
         <v>122</v>
       </c>
-      <c r="C59" t="s">
-        <v>123</v>
-      </c>
       <c r="D59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -2265,13 +2284,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60" t="s">
         <v>124</v>
       </c>
-      <c r="C60" t="s">
-        <v>125</v>
-      </c>
       <c r="D60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -2279,13 +2298,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" t="s">
         <v>126</v>
       </c>
-      <c r="C61" t="s">
-        <v>127</v>
-      </c>
       <c r="D61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -2293,13 +2312,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" t="s">
         <v>128</v>
       </c>
-      <c r="C62" t="s">
-        <v>129</v>
-      </c>
       <c r="D62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -2307,13 +2326,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" t="s">
         <v>130</v>
       </c>
-      <c r="C63" t="s">
-        <v>131</v>
-      </c>
       <c r="D63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -2321,13 +2340,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
+        <v>131</v>
+      </c>
+      <c r="C64" t="s">
         <v>132</v>
       </c>
-      <c r="C64" t="s">
-        <v>133</v>
-      </c>
       <c r="D64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -2335,13 +2354,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
+        <v>133</v>
+      </c>
+      <c r="C65" t="s">
         <v>134</v>
       </c>
-      <c r="C65" t="s">
-        <v>135</v>
-      </c>
       <c r="D65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -2349,13 +2368,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
+        <v>135</v>
+      </c>
+      <c r="C66" t="s">
         <v>136</v>
       </c>
-      <c r="C66" t="s">
-        <v>137</v>
-      </c>
       <c r="D66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -2363,13 +2382,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
+        <v>137</v>
+      </c>
+      <c r="C67" t="s">
         <v>138</v>
       </c>
-      <c r="C67" t="s">
-        <v>139</v>
-      </c>
       <c r="D67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -2377,13 +2396,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
+        <v>139</v>
+      </c>
+      <c r="C68" t="s">
         <v>140</v>
       </c>
-      <c r="C68" t="s">
-        <v>141</v>
-      </c>
       <c r="D68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -2391,13 +2410,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
+        <v>141</v>
+      </c>
+      <c r="C69" t="s">
         <v>142</v>
       </c>
-      <c r="C69" t="s">
-        <v>143</v>
-      </c>
       <c r="D69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -2405,13 +2424,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
+        <v>143</v>
+      </c>
+      <c r="C70" t="s">
         <v>144</v>
       </c>
-      <c r="C70" t="s">
-        <v>145</v>
-      </c>
       <c r="D70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -2419,13 +2438,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
+        <v>145</v>
+      </c>
+      <c r="C71" t="s">
         <v>146</v>
       </c>
-      <c r="C71" t="s">
-        <v>147</v>
-      </c>
       <c r="D71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -2433,13 +2452,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
+        <v>147</v>
+      </c>
+      <c r="C72" t="s">
         <v>148</v>
       </c>
-      <c r="C72" t="s">
-        <v>149</v>
-      </c>
       <c r="D72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -2447,13 +2466,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
+        <v>149</v>
+      </c>
+      <c r="C73" t="s">
         <v>150</v>
       </c>
-      <c r="C73" t="s">
-        <v>151</v>
-      </c>
       <c r="D73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -2461,13 +2480,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
+        <v>151</v>
+      </c>
+      <c r="C74" t="s">
         <v>152</v>
       </c>
-      <c r="C74" t="s">
-        <v>153</v>
-      </c>
       <c r="D74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -2475,13 +2494,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
+        <v>153</v>
+      </c>
+      <c r="C75" t="s">
         <v>154</v>
       </c>
-      <c r="C75" t="s">
-        <v>155</v>
-      </c>
       <c r="D75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -2489,13 +2508,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
+        <v>155</v>
+      </c>
+      <c r="C76" t="s">
         <v>156</v>
       </c>
-      <c r="C76" t="s">
-        <v>157</v>
-      </c>
       <c r="D76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -2503,13 +2522,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
+        <v>157</v>
+      </c>
+      <c r="C77" t="s">
         <v>158</v>
       </c>
-      <c r="C77" t="s">
-        <v>159</v>
-      </c>
       <c r="D77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -2517,13 +2536,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
+        <v>159</v>
+      </c>
+      <c r="C78" t="s">
         <v>160</v>
       </c>
-      <c r="C78" t="s">
-        <v>161</v>
-      </c>
       <c r="D78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -2531,13 +2550,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
+        <v>161</v>
+      </c>
+      <c r="C79" t="s">
         <v>162</v>
       </c>
-      <c r="C79" t="s">
-        <v>163</v>
-      </c>
       <c r="D79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
